--- a/data/loop/group5/0.1/DNN/schedule/3.xlsx
+++ b/data/loop/group5/0.1/DNN/schedule/3.xlsx
@@ -462,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391916036605835</v>
+        <v>0.3927309513092041</v>
       </c>
       <c r="G2" t="n">
         <v>0.06785386307664538</v>
       </c>
       <c r="H2" t="n">
-        <v>37.60385656087315</v>
+        <v>37.52582875198087</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -497,19 +497,19 @@
         <v>165</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3938169479370117</v>
+        <v>0.3967030048370361</v>
       </c>
       <c r="G3" t="n">
         <v>0.0675465969115097</v>
       </c>
       <c r="H3" t="n">
-        <v>37.59257928369082</v>
+        <v>37.3190892382197</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -538,19 +538,19 @@
         <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3889451026916504</v>
+        <v>0.3907439708709717</v>
       </c>
       <c r="G4" t="n">
         <v>0.07004668176550057</v>
       </c>
       <c r="H4" t="n">
-        <v>36.70490679810717</v>
+        <v>36.53592840359249</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -559,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -585,13 +585,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3980469703674316</v>
+        <v>0.3999819755554199</v>
       </c>
       <c r="G5" t="n">
         <v>0.06905672065316348</v>
       </c>
       <c r="H5" t="n">
-        <v>36.37975135061775</v>
+        <v>36.20375590106426</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -626,13 +626,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3952810764312744</v>
+        <v>0.3989548683166504</v>
       </c>
       <c r="G6" t="n">
         <v>0.07060920916786123</v>
       </c>
       <c r="H6" t="n">
-        <v>35.82883022111825</v>
+        <v>35.49889900287231</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -641,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -667,13 +667,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3921370506286621</v>
+        <v>0.3934228420257568</v>
       </c>
       <c r="G7" t="n">
         <v>0.07201415328036988</v>
       </c>
       <c r="H7" t="n">
-        <v>35.41149508302427</v>
+        <v>35.29576261690317</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
@@ -708,13 +708,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3907198905944824</v>
+        <v>0.3943130970001221</v>
       </c>
       <c r="G8" t="n">
         <v>0.07295587263090206</v>
       </c>
       <c r="H8" t="n">
-        <v>35.08118241525985</v>
+        <v>34.76150262189024</v>
       </c>
       <c r="I8" t="n">
         <v>18</v>
@@ -740,25 +740,21 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
       <c r="F9" t="n">
-        <v>0.391334056854248</v>
+        <v>0.3895859718322754</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07303812432118041</v>
+        <v>0.07430109138586131</v>
       </c>
       <c r="H9" t="n">
-        <v>34.98668083835316</v>
+        <v>34.54629653169776</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
         <v>7</v>
@@ -781,34 +777,28 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.3887760639190674</v>
+        <v>0.3963508605957031</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07430109138586131</v>
+        <v>0.07303812432118041</v>
       </c>
       <c r="H10" t="n">
-        <v>34.61826423117751</v>
+        <v>34.54383756795596</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
@@ -820,20 +810,16 @@
       <c r="C11" t="n">
         <v>175</v>
       </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.4089059829711914</v>
+        <v>0.4127500057220459</v>
       </c>
       <c r="G11" t="n">
         <v>0.07248237753791567</v>
       </c>
       <c r="H11" t="n">
-        <v>33.73992434966848</v>
+        <v>33.42569773546081</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -841,15 +827,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -861,20 +841,16 @@
       <c r="C12" t="n">
         <v>231</v>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.3998990058898926</v>
+        <v>0.4022190570831299</v>
       </c>
       <c r="G12" t="n">
         <v>0.07472507394147847</v>
       </c>
       <c r="H12" t="n">
-        <v>33.46442152146742</v>
+        <v>33.27139443904892</v>
       </c>
       <c r="I12" t="n">
         <v>18</v>
@@ -882,15 +858,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -902,20 +872,16 @@
       <c r="C13" t="n">
         <v>291</v>
       </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.4005739688873291</v>
+        <v>0.4018609523773193</v>
       </c>
       <c r="G13" t="n">
         <v>0.07642649018497609</v>
       </c>
       <c r="H13" t="n">
-        <v>32.664300408678</v>
+        <v>32.55969105290617</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -923,15 +889,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -943,20 +903,16 @@
       <c r="C14" t="n">
         <v>169</v>
       </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.3917441368103027</v>
+        <v>0.3923599720001221</v>
       </c>
       <c r="G14" t="n">
         <v>0.07920988259860003</v>
       </c>
       <c r="H14" t="n">
-        <v>32.22686985686887</v>
+        <v>32.17628763153529</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -964,15 +920,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -984,20 +934,16 @@
       <c r="C15" t="n">
         <v>149</v>
       </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.5194129943847656</v>
+        <v>0.5210921764373779</v>
       </c>
       <c r="G15" t="n">
         <v>0.07146260594305685</v>
       </c>
       <c r="H15" t="n">
-        <v>26.94066679777485</v>
+        <v>26.85385243705748</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -1005,15 +951,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1023,38 +963,28 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>39</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5230939388275146</v>
+        <v>0.5261969566345215</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07136400004948733</v>
+        <v>0.07140801168097428</v>
       </c>
       <c r="H16" t="n">
-        <v>26.78805163192593</v>
+        <v>26.61366755202912</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1064,38 +994,28 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>274</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5247821807861328</v>
+        <v>0.5270490646362305</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07140801168097428</v>
+        <v>0.07136400004948733</v>
       </c>
       <c r="H17" t="n">
-        <v>26.68541612785395</v>
+        <v>26.58702648743057</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1107,20 +1027,16 @@
       <c r="C18" t="n">
         <v>204</v>
       </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5236899852752686</v>
+        <v>0.5266590118408203</v>
       </c>
       <c r="G18" t="n">
         <v>0.07209369232310843</v>
       </c>
       <c r="H18" t="n">
-        <v>26.48673719583421</v>
+        <v>26.337418899553</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1128,15 +1044,9 @@
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1148,20 +1058,16 @@
       <c r="C19" t="n">
         <v>214</v>
       </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.529810905456543</v>
+        <v>0.534041166305542</v>
       </c>
       <c r="G19" t="n">
         <v>0.07806018015958167</v>
       </c>
       <c r="H19" t="n">
-        <v>24.17962478584762</v>
+        <v>23.98809250981979</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1169,15 +1075,9 @@
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1189,20 +1089,16 @@
       <c r="C20" t="n">
         <v>267</v>
       </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5264480113983154</v>
+        <v>0.5297999382019043</v>
       </c>
       <c r="G20" t="n">
         <v>0.08111243789142437</v>
       </c>
       <c r="H20" t="n">
-        <v>23.41839116311656</v>
+        <v>23.27022819182029</v>
       </c>
       <c r="I20" t="n">
         <v>27</v>
@@ -1210,15 +1106,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1230,20 +1120,16 @@
       <c r="C21" t="n">
         <v>137</v>
       </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.8718459606170654</v>
+        <v>0.8773729801177979</v>
       </c>
       <c r="G21" t="n">
         <v>0.06983871221271454</v>
       </c>
       <c r="H21" t="n">
-        <v>16.42343581832444</v>
+        <v>16.31997622691473</v>
       </c>
       <c r="I21" t="n">
         <v>6</v>
@@ -1251,15 +1137,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1269,38 +1149,28 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.8870100975036621</v>
+        <v>0.8817441463470459</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07032709796401243</v>
+        <v>0.07117471492152391</v>
       </c>
       <c r="H22" t="n">
-        <v>16.03056168305234</v>
+        <v>15.93425189861169</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1310,38 +1180,28 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>259</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.8767940998077393</v>
+        <v>0.9000070095062256</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07117471492152391</v>
+        <v>0.07032709796401243</v>
       </c>
       <c r="H23" t="n">
-        <v>16.02421063405991</v>
+        <v>15.79906593096859</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1353,20 +1213,16 @@
       <c r="C24" t="n">
         <v>250</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.8891749382019043</v>
+        <v>0.8924710750579834</v>
       </c>
       <c r="G24" t="n">
         <v>0.07246138416962872</v>
       </c>
       <c r="H24" t="n">
-        <v>15.52051617826705</v>
+        <v>15.46319471785195</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -1374,15 +1230,9 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1394,20 +1244,16 @@
       <c r="C25" t="n">
         <v>120</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.8787319660186768</v>
+        <v>0.8798351287841797</v>
       </c>
       <c r="G25" t="n">
         <v>0.07483982798595071</v>
       </c>
       <c r="H25" t="n">
-        <v>15.20585322594993</v>
+        <v>15.1867876867963</v>
       </c>
       <c r="I25" t="n">
         <v>18</v>
@@ -1415,15 +1261,9 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1435,20 +1275,16 @@
       <c r="C26" t="n">
         <v>65</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8693859577178955</v>
+        <v>0.8738498687744141</v>
       </c>
       <c r="G26" t="n">
         <v>0.07627660747811996</v>
       </c>
       <c r="H26" t="n">
-        <v>15.0798148715509</v>
+        <v>15.00278224301737</v>
       </c>
       <c r="I26" t="n">
         <v>27</v>
@@ -1456,15 +1292,9 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1476,20 +1306,16 @@
       <c r="C27" t="n">
         <v>76</v>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.866753101348877</v>
+        <v>0.8731839656829834</v>
       </c>
       <c r="G27" t="n">
         <v>0.0773328370267697</v>
       </c>
       <c r="H27" t="n">
-        <v>14.91903224967765</v>
+        <v>14.80915589353225</v>
       </c>
       <c r="I27" t="n">
         <v>14</v>
@@ -1497,15 +1323,9 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1515,38 +1335,28 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.8963310718536377</v>
+        <v>0.888267993927002</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07565200459960732</v>
+        <v>0.07801574316819831</v>
       </c>
       <c r="H28" t="n">
-        <v>14.74725221871738</v>
+        <v>14.43024604717849</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1556,38 +1366,28 @@
         <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8834071159362793</v>
+        <v>0.9245188236236572</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07801574316819831</v>
+        <v>0.07565200459960732</v>
       </c>
       <c r="H29" t="n">
-        <v>14.50964733809644</v>
+        <v>14.29762169285986</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1599,20 +1399,16 @@
       <c r="C30" t="n">
         <v>19</v>
       </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8848609924316406</v>
+        <v>0.8973128795623779</v>
       </c>
       <c r="G30" t="n">
         <v>0.0781366548144303</v>
       </c>
       <c r="H30" t="n">
-        <v>14.4633912778294</v>
+        <v>14.26268479091588</v>
       </c>
       <c r="I30" t="n">
         <v>18</v>
@@ -1620,15 +1416,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1640,20 +1430,16 @@
       <c r="C31" t="n">
         <v>16</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8880939483642578</v>
+        <v>0.8962569236755371</v>
       </c>
       <c r="G31" t="n">
         <v>0.07866406631686991</v>
       </c>
       <c r="H31" t="n">
-        <v>14.31412142656706</v>
+        <v>14.18375052875738</v>
       </c>
       <c r="I31" t="n">
         <v>18</v>
@@ -1661,15 +1447,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
